--- a/funcionarios_PGPL.xlsx
+++ b/funcionarios_PGPL.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMAC\Desktop\Plano folha de Ponto\ControlePonto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BEBC3B-4DE8-4DF8-8E34-A68DF9EE2E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73660CA5-3708-49F0-B523-1274BCBA998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PGPL PREFEITURA" sheetId="4" r:id="rId1"/>
-    <sheet name="PGPL 30" sheetId="2" r:id="rId2"/>
+    <sheet name="PGPL 40 HS" sheetId="1" r:id="rId1"/>
+    <sheet name="PGPL PREFEITURA" sheetId="4" r:id="rId2"/>
+    <sheet name="PGPL 30" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,26 +27,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+  <si>
+    <t xml:space="preserve">HALFRED ANGELO RESENDE </t>
+  </si>
   <si>
     <t xml:space="preserve">GENTE 1º LUGAR - SUPERVISÃO DE CAPOEIRA </t>
   </si>
   <si>
+    <t xml:space="preserve">SUPERVISOR CULTURAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS ELIAS DE SOUZA </t>
+  </si>
+  <si>
     <t>GENTE 1º LUGAR - SUPERVISÃO DE ARTE</t>
   </si>
   <si>
+    <t>JANAINA FERNANDES FRAGA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENTE 1º LUGAR - COORDENAÇÃO CULTURAL </t>
   </si>
   <si>
+    <t xml:space="preserve">DESIGNER GRÁFICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAUL DE  OLIVEIRA MAGALHÃES </t>
+  </si>
+  <si>
     <t xml:space="preserve">GENTE 1º LUGAR - SUPERVISÃO DE DANÇA </t>
   </si>
   <si>
     <t xml:space="preserve">ARTICULADOR  CULTURAL </t>
   </si>
   <si>
+    <t>TAINÁ CRISTINA PROCÓPIO NEVES</t>
+  </si>
+  <si>
     <t>GENTE 1º LUGAR - SUPERVISÃO DE  TEATRO</t>
   </si>
   <si>
+    <t xml:space="preserve">DAYSELAYNE BENTO DA SILVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUXILIAR  ADMINISTRATIVO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALESCA APARECIDA PEREIRA DE SOUZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTORISTA </t>
+  </si>
+  <si>
+    <t>CARLOS  EDUADO BARBOSA</t>
+  </si>
+  <si>
+    <t>RECEPCIONISTA</t>
+  </si>
+  <si>
     <t>MAT</t>
   </si>
   <si>
@@ -76,6 +116,9 @@
     <t xml:space="preserve">FELIPE LOURENÇO ROSA </t>
   </si>
   <si>
+    <t>DANIELA DE OLIVEIRA BRITO</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOÃO BATISTA DE MEDEIROS </t>
   </si>
   <si>
@@ -115,6 +158,9 @@
     <t xml:space="preserve">GENTE 1º LUGAR - SUPERVISÃO DE  MÚSICA </t>
   </si>
   <si>
+    <t xml:space="preserve">DIEGO ALEXANDRE COSTA DA SILVA </t>
+  </si>
+  <si>
     <t xml:space="preserve">GENTE 1º LUGAR - SUPERVISÃO DE  MUSICA </t>
   </si>
   <si>
@@ -193,7 +239,25 @@
     <t>LEILA BARBOSA MIANA</t>
   </si>
   <si>
+    <t>Atualizzada em 31/07/25</t>
+  </si>
+  <si>
     <t>IRAN RODRIGUES SILVA</t>
+  </si>
+  <si>
+    <t>GENTE 1º LUGAR - SUPERVISÃO   CULTURAL</t>
+  </si>
+  <si>
+    <t>COORDENADOR CULTURAL</t>
+  </si>
+  <si>
+    <t>JCKSON CARLOS DOMINGOS SANTOS</t>
+  </si>
+  <si>
+    <t>ATUALIZADA EM  05/01/26</t>
+  </si>
+  <si>
+    <t>Atualizada em  05/01/26</t>
   </si>
   <si>
     <t>Lic. Sem vencimento, não tem folha de ponto.</t>
@@ -206,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,8 +301,23 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -339,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,33 +427,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,134 +769,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>11647</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>11649</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>11653</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>11656</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>11657</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>11672</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>11682</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>11745</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>11884</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11680</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12795</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF98C71-9734-40A6-B653-5ADCE0567CAB}">
   <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>13755</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>13757</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>13758</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13759</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>13760</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>13756</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>13794</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -823,400 +1090,402 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11">
+        <v>11658</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11">
+        <v>11760</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11">
+        <v>11865</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11">
+        <v>13393</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11">
+        <v>11702</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11">
+        <v>11660</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11">
+        <v>13036</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11">
+        <v>13819</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11">
+        <v>11668</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11">
+        <v>11937</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11">
+        <v>13490</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11">
+        <v>13803</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11">
+        <v>13859</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11">
+        <v>12560</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11">
+        <v>12444</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9">
-        <v>11658</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="E16" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="14">
+        <v>11676</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9">
-        <v>11760</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9">
-        <v>11865</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9">
-        <v>13393</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9">
-        <v>11702</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9">
-        <v>11660</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9">
-        <v>13036</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9">
-        <v>13819</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9">
-        <v>11668</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9">
-        <v>11937</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9">
-        <v>13490</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9">
-        <v>13803</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9">
-        <v>13859</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9">
-        <v>12560</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9">
-        <v>12444</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12">
-        <v>11676</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="14">
         <v>11681</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12">
+      <c r="C18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="14">
         <v>13447</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11">
+        <v>11679</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11">
+        <v>13147</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11">
+        <v>13516</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11">
+        <v>13910</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
+        <v>13709</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9">
-        <v>11679</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9">
-        <v>13147</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9">
-        <v>13516</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9">
-        <v>13910</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="19">
-        <v>13709</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C30" s="18" t="s">
-        <v>56</v>
+      <c r="E28" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
